--- a/salarios.xlsx
+++ b/salarios.xlsx
@@ -19,9 +19,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>     39,343.00</t>
-  </si>
-  <si>
     <t>1.3</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Salarios</t>
+  </si>
+  <si>
+    <t>     39,343</t>
   </si>
 </sst>
 </file>
@@ -343,40 +343,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF595F5F"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -439,6 +405,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -446,18 +421,43 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF595F5F"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -474,11 +474,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B1:C31" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B1:C31" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="B1:C31"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Experiencia" dataDxfId="2"/>
-    <tableColumn id="2" name="Salarios" dataDxfId="1"/>
+    <tableColumn id="1" name="Experiencia" dataDxfId="1"/>
+    <tableColumn id="2" name="Salarios" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -774,7 +774,7 @@
   <dimension ref="B1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -783,36 +783,36 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36">
+    <row r="1" spans="2:3" ht="18">
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="36">
+    </row>
+    <row r="2" spans="2:3" ht="18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="36">
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="36">
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="36">
@@ -820,23 +820,23 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="36">
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="36">
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="36">
@@ -844,39 +844,39 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="36">
       <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="36">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="36">
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="36">
       <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="36">
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="36">
@@ -892,55 +892,55 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="36">
       <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="36">
       <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="36">
       <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="36">
       <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="36">
       <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="36">
       <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="36">
@@ -948,87 +948,87 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="36">
       <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="36">
       <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="36">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="54">
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="2:3" ht="36">
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="54">
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="2:3" ht="36">
+      <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="54">
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="54">
+    </row>
+    <row r="27" spans="2:3" ht="36">
       <c r="B27" s="1">
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="36">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="54">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="29" spans="2:3" ht="36">
+      <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="54">
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="30" spans="2:3" ht="36">
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="54">
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="2:3" ht="36">
+      <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" ht="54">
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
